--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2eme annee\ProjetWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simao.HENRIQUES-SILV\Documents\GitHub\ProjetWebDMS\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Remplissage du Journal de travail avec ce qui déjà été fait</t>
+  </si>
+  <si>
+    <t>Commencement du Dossier de projet</t>
+  </si>
+  <si>
+    <t>Commencement du dossier de projet DMS-SHOES</t>
+  </si>
+  <si>
+    <t>Continuation du Dossier de projet</t>
+  </si>
+  <si>
+    <t>Continuation du Dossier de projet DMS-SHOES</t>
+  </si>
+  <si>
+    <t>Simão Henirques da Silva</t>
   </si>
 </sst>
 </file>
@@ -695,40 +710,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +743,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1362,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,27 +1400,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1413,14 +1428,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1447,14 +1462,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1482,14 +1497,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1517,15 +1532,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.17222222222222261</v>
+        <v>0.23472222222222261</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1581,10 +1596,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1615,10 +1630,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1649,10 +1664,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1679,31 +1694,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>44959</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J12" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>44960</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J13" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G14" s="4"/>
@@ -44225,18 +44268,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44597,9 +44640,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44773,26 +44819,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44816,9 +44851,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Simão Henirques da Silva</t>
+  </si>
+  <si>
+    <t>Ajout des Wireframes dans le Dossier de Projet</t>
   </si>
 </sst>
 </file>
@@ -710,13 +713,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,36 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,27 +1403,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1428,14 +1431,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1462,14 +1465,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1497,14 +1500,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1532,15 +1535,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.23472222222222261</v>
+        <v>0.27361111111111147</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1630,10 +1633,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1664,10 +1667,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1748,18 +1751,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+    <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>45331</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.60138888888888886</v>
+      </c>
       <c r="J14" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.8888888888888862E-2</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G15" s="4"/>
@@ -44268,18 +44285,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44640,12 +44657,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44819,15 +44833,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44851,17 +44876,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Ajout des Wireframes dans le Dossier de Projet</t>
+  </si>
+  <si>
+    <t>Ajout des zooning dans le Dossier de Projet</t>
   </si>
 </sst>
 </file>
@@ -713,43 +716,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +748,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1380,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,27 +1406,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1431,14 +1434,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1465,14 +1468,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1500,14 +1503,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1535,15 +1538,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.27361111111111147</v>
+        <v>0.28750000000000042</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1599,10 +1602,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1633,10 +1636,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1667,10 +1670,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="G14" s="4">
-        <v>45331</v>
+        <v>44966</v>
       </c>
       <c r="H14" s="5">
         <v>0.5625</v>
@@ -1778,18 +1781,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+    <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="J15" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G16" s="4"/>
@@ -44285,18 +44302,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44657,9 +44674,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44833,26 +44853,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44876,9 +44885,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Ajout des zooning dans le Dossier de Projet</t>
+  </si>
+  <si>
+    <t>Prise de tâche sur IceScrum</t>
+  </si>
+  <si>
+    <t>Prise de tâche sur IceScrum et fin des tâches</t>
+  </si>
+  <si>
+    <t>Mise à jour du dossier de projet et du cahier des charges</t>
   </si>
 </sst>
 </file>
@@ -716,13 +725,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,36 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1383,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1434,14 +1443,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1468,14 +1477,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1503,14 +1512,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1538,15 +1547,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.28750000000000042</v>
+        <v>0.29791666666666705</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1602,10 +1611,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1636,10 +1645,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1670,10 +1679,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1808,31 +1817,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.62152777777777779</v>
+      </c>
       <c r="J16" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J17" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G18" s="4"/>
@@ -44302,18 +44339,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44674,12 +44711,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44853,15 +44887,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44885,17 +44930,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>Mise à jour du dossier de projet et du cahier des charges</t>
+  </si>
+  <si>
+    <t>Réflexion sur les questions pour le prochain rendez-vous</t>
+  </si>
+  <si>
+    <t>On à réfléchi avec Marcos sur les questions pour le rendez-vous avec le client</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva et Marcos Valente da Silva</t>
+  </si>
+  <si>
+    <t>Correction d'un User Story IceScrum</t>
+  </si>
+  <si>
+    <t>Correction d'un User Story IceScrum sur le MVC</t>
   </si>
 </sst>
 </file>
@@ -725,43 +740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +772,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,27 +1430,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1443,14 +1458,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1477,14 +1492,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1512,14 +1527,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1547,15 +1562,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.29791666666666705</v>
+        <v>0.31180555555555589</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1611,10 +1626,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1645,10 +1660,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1679,10 +1694,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1871,31 +1886,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+    <row r="18" spans="7:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.64930555555555558</v>
+      </c>
       <c r="J18" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="J19" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>
@@ -44339,18 +44382,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44711,9 +44754,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44887,26 +44933,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44930,9 +44965,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -740,13 +740,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,36 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1430,27 +1430,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1458,14 +1458,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1492,14 +1492,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1527,14 +1527,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1562,15 +1562,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
         <v>0.31180555555555589</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1660,10 +1660,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1694,10 +1694,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -44382,18 +44382,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44754,12 +44754,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44933,15 +44930,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44965,17 +44973,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>Correction d'un User Story IceScrum sur le MVC</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva et Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Recherche d'un template</t>
+  </si>
+  <si>
+    <t>Recherche d'un template pour le commencement du code</t>
+  </si>
+  <si>
+    <t>Création de l'arborescence MVC</t>
+  </si>
+  <si>
+    <t>Création de l'arborescence MVC pour le code.</t>
   </si>
 </sst>
 </file>
@@ -740,43 +755,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,6 +787,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,27 +1445,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1458,14 +1473,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1492,14 +1507,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1527,14 +1542,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1562,15 +1577,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.31180555555555589</v>
+        <v>0.33263888888888926</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1626,10 +1641,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1660,10 +1675,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1694,10 +1709,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -1940,31 +1955,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>44977</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="J20" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>44977</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="J21" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
@@ -44382,18 +44425,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44754,9 +44797,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44930,26 +44976,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44973,9 +45008,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -755,13 +755,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,36 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,27 +1445,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1473,14 +1473,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1507,14 +1507,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1542,14 +1542,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1577,15 +1577,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.33263888888888926</v>
+        <v>0.35694444444444473</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1675,10 +1675,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1709,10 +1709,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2009,18 +2009,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+    <row r="22" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>44978</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J22" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
@@ -44425,18 +44439,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44797,12 +44811,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44976,15 +44987,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45008,17 +45030,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Création de l'arborescence MVC pour le code.</t>
+  </si>
+  <si>
+    <t>Ajout de la template et modification</t>
+  </si>
+  <si>
+    <t>Ajout de la template et modification du code</t>
   </si>
 </sst>
 </file>
@@ -755,43 +761,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +793,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1422,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,27 +1451,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1473,14 +1479,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1507,14 +1513,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1542,14 +1548,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1577,15 +1583,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.35694444444444473</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>0.44722222222222241</v>
+      </c>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1641,10 +1647,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1675,10 +1681,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1709,10 +1715,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2036,31 +2042,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+    <row r="23" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J23" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J24" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
@@ -44439,18 +44473,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44811,9 +44845,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44987,26 +45024,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45030,9 +45056,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Ajout de la template et modification du code</t>
+  </si>
+  <si>
+    <t>Ajout de User story</t>
+  </si>
+  <si>
+    <t>Ajout de plus de User Story pour les prochain sprint</t>
+  </si>
+  <si>
+    <t>Retour du cahier des charges</t>
+  </si>
+  <si>
+    <t>M.MEYLAN</t>
   </si>
 </sst>
 </file>
@@ -680,7 +692,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -758,16 +770,45 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,37 +835,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1428,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,27 +1468,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1479,14 +1496,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="49"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1513,14 +1530,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="47"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1548,14 +1565,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="38"/>
+      <c r="D6" s="44">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="45"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1583,15 +1600,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="36"/>
+      <c r="D7" s="39">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.44722222222222241</v>
-      </c>
-      <c r="E7" s="50"/>
+        <v>0.47500000000000009</v>
+      </c>
+      <c r="E7" s="40"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1647,10 +1664,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="30"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1681,10 +1698,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="32"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1715,10 +1732,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="34"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2096,18 +2113,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+    <row r="25" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <v>44985</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J25" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G26" s="4"/>
@@ -44473,18 +44504,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44502,23 +44533,23 @@
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="25"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -44533,304 +44564,310 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="52">
+        <v>44981</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -44845,12 +44882,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45024,15 +45058,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45056,17 +45101,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -772,43 +772,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,13 +811,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,27 +1468,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1496,14 +1496,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1530,14 +1530,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1565,14 +1565,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="44">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1600,15 +1600,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.47500000000000009</v>
-      </c>
-      <c r="E7" s="40"/>
+        <v>0.5409722222222223</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1698,10 +1698,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2141,17 +2141,31 @@
       </c>
     </row>
     <row r="26" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J26" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G27" s="4"/>
@@ -44504,18 +44518,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44543,13 +44557,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="25"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -44564,13 +44578,13 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="52">
+      <c r="C4" s="30">
         <v>44981</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="29" t="s">
         <v>65</v>
       </c>
     </row>
@@ -44882,9 +44896,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45058,26 +45075,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45101,9 +45107,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>M.MEYLAN</t>
+  </si>
+  <si>
+    <t>Code du login</t>
+  </si>
+  <si>
+    <t>Création du code du login / register du site</t>
+  </si>
+  <si>
+    <t>Simão Henriques  da Silva , Marcos Valente da Silva , Diego Pinto Tomaz</t>
   </si>
 </sst>
 </file>
@@ -778,13 +787,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,36 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,7 +1455,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,27 +1477,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1496,14 +1505,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1530,14 +1539,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1565,14 +1574,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1600,15 +1609,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.5409722222222223</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>0.60694444444444451</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1664,10 +1673,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1698,10 +1707,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1732,10 +1741,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2167,18 +2176,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+    <row r="27" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G27" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J27" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G28" s="4"/>
@@ -44518,18 +44541,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44896,12 +44919,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45075,15 +45095,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45107,17 +45138,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -225,13 +225,16 @@
     <t>M.MEYLAN</t>
   </si>
   <si>
-    <t>Code du login</t>
-  </si>
-  <si>
     <t>Création du code du login / register du site</t>
   </si>
   <si>
     <t>Simão Henriques  da Silva , Marcos Valente da Silva , Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Continuation du code du login / register du site</t>
+  </si>
+  <si>
+    <t>Code du login / register</t>
   </si>
 </sst>
 </file>
@@ -787,43 +790,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,6 +822,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,27 +1480,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1505,14 +1508,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1539,14 +1542,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1574,14 +1577,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1609,15 +1612,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.60694444444444451</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1707,10 +1710,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1741,10 +1744,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2194,40 +2197,68 @@
         <v>22</v>
       </c>
       <c r="L27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+    </row>
+    <row r="28" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G28" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J28" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="4">
+        <v>44991</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="J29" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G30" s="4"/>
@@ -44541,18 +44572,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44919,9 +44950,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45095,26 +45129,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45138,9 +45161,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Code du login / register</t>
+  </si>
+  <si>
+    <t>Continuation du code du login / register du site avec tentative de correction du problème des données récupérées dans le dossier JSON</t>
   </si>
 </sst>
 </file>
@@ -790,13 +793,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,36 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1457,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,27 +1483,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1508,14 +1511,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1542,14 +1545,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1577,14 +1580,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1612,15 +1615,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.7006944444444444</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1676,10 +1679,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1710,10 +1713,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1744,10 +1747,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2260,18 +2263,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+    <row r="30" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G30" s="4">
+        <v>44992</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J30" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G31" s="4"/>
@@ -44572,18 +44589,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44950,12 +44967,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45129,15 +45143,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45161,17 +45186,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Continuation du code du login / register du site avec tentative de correction du problème des données récupérées dans le dossier JSON</t>
+  </si>
+  <si>
+    <t>Continuation du code du login /register du site</t>
+  </si>
+  <si>
+    <t>Continuation du login/register du site</t>
+  </si>
+  <si>
+    <t>Continuation du register + fin</t>
   </si>
 </sst>
 </file>
@@ -793,43 +802,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,6 +834,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="K25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,27 +1492,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1511,14 +1520,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1545,14 +1554,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1580,14 +1589,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1615,15 +1624,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1679,10 +1688,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1713,10 +1722,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1747,10 +1756,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2290,44 +2299,86 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+    <row r="31" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="4">
+        <v>44993</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J31" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" s="4">
+        <v>44994</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J32" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="4">
+        <v>44999</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J33" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="4"/>
@@ -44589,18 +44640,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44967,9 +45018,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45143,26 +45197,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45186,9 +45229,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Continuation du register + fin</t>
+  </si>
+  <si>
+    <t>Commencement du code du login</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1633,7 @@
       <c r="C7" s="49"/>
       <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.93333333333333324</v>
+        <v>1.0513888888888885</v>
       </c>
       <c r="E7" s="51"/>
       <c r="G7" s="4">
@@ -2380,44 +2383,86 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+    <row r="34" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34" s="4">
+        <v>45000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J34" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="4">
+        <v>45001</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J35" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G36" s="4">
+        <v>45006</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J36" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>

--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>Commencement du code du login</t>
+  </si>
+  <si>
+    <t>Code la page produit</t>
+  </si>
+  <si>
+    <t>Continuation du code du login</t>
+  </si>
+  <si>
+    <t>Commencement de la page de produit</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva , Marcos Valente da Silva, Diego Pinto Tomaz</t>
   </si>
 </sst>
 </file>
@@ -805,13 +817,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,36 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N42:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,27 +1507,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1523,14 +1535,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1557,14 +1569,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1592,14 +1604,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1627,15 +1639,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.0513888888888885</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>1.0791666666666662</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1691,10 +1703,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1725,10 +1737,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1759,10 +1771,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>33</v>
@@ -2458,24 +2470,38 @@
         <v>69</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
+    <row r="37" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G37" s="4">
+        <v>45007</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J37" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="4"/>
@@ -44685,18 +44711,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45063,12 +45089,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45242,15 +45265,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45274,17 +45308,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Simão Henriques da Silva , Marcos Valente da Silva, Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Code de la page produit</t>
+  </si>
+  <si>
+    <t>Continuation de la page de produit</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva, Marcos Valente da Silva et Diego Pinto Tomaz</t>
   </si>
 </sst>
 </file>
@@ -817,43 +826,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +858,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1485,7 +1494,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N43" sqref="N42:N43"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,27 +1516,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1535,14 +1544,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1569,14 +1578,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1604,14 +1613,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1639,15 +1648,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.0791666666666662</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>1.218055555555555</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1703,10 +1712,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1737,10 +1746,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1771,10 +1780,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2503,18 +2512,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
+    <row r="38" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G38" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J38" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="4"/>
@@ -44711,18 +44734,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45089,9 +45112,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45265,26 +45291,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45308,9 +45323,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simao.HENRIQUES-SILV\Documents\GitHub\ProjetWebDMS\ProjetWebDMS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos.VALENTE-DA-SI\Documents\GitHub\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>Simão Henriques da Silva, Marcos Valente da Silva et Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Finalisation de la page pour les produits, sans panier</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva, Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code du login </t>
+  </si>
+  <si>
+    <t>Finalisation de la page login</t>
   </si>
 </sst>
 </file>
@@ -826,13 +838,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,36 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,27 +1528,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1544,14 +1556,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1578,14 +1590,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1613,14 +1625,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1648,15 +1660,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.218055555555555</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>1.343055555555555</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1712,10 +1724,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1746,10 +1758,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1780,10 +1792,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14" ht="45" x14ac:dyDescent="0.25">
       <c r="G36" s="4">
         <v>45006</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>76</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="7:14" ht="30" x14ac:dyDescent="0.25">
@@ -2490,14 +2502,14 @@
         <v>45007</v>
       </c>
       <c r="H37" s="5">
-        <v>0.67361111111111116</v>
+        <v>0.5625</v>
       </c>
       <c r="I37" s="6">
         <v>0.70138888888888884</v>
       </c>
       <c r="J37" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>2.7777777777777679E-2</v>
+        <v>0.13888888888888884</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
@@ -2520,11 +2532,11 @@
         <v>0.5625</v>
       </c>
       <c r="I38" s="6">
-        <v>0.70138888888888884</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="J38" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0.13888888888888884</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
@@ -2539,44 +2551,86 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+    <row r="39" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G39" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J39" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G40" s="4">
+        <v>45012</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="J40" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G41" s="4">
+        <v>45013</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J41" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
@@ -44734,18 +44788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45112,12 +45166,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45291,15 +45342,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45323,17 +45385,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos.VALENTE-DA-SI\Documents\GitHub\ProjetWebDMS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simao.HENRIQUES-SILV\Documents\GitHub\ProjetWebDMS\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>Finalisation de la page login</t>
+  </si>
+  <si>
+    <t>Code du panier</t>
+  </si>
+  <si>
+    <t>Commencement du code du panier</t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva .Marcos Valenta da Silva et Diego Pinto Tomaz</t>
   </si>
 </sst>
 </file>
@@ -838,43 +847,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,6 +879,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,27 +1537,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1556,14 +1565,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1590,14 +1599,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1625,14 +1634,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1660,15 +1669,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.343055555555555</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>1.4472222222222215</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1724,10 +1733,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1758,10 +1767,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1792,10 +1801,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2632,18 +2641,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+    <row r="42" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G42" s="4">
+        <v>45014</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J42" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
@@ -44788,18 +44811,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45166,9 +45189,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45342,26 +45368,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45385,9 +45400,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Simão Henriques da Silva .Marcos Valenta da Silva et Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Correction d'un bug du register / login</t>
+  </si>
+  <si>
+    <t>Code de logout</t>
+  </si>
+  <si>
+    <t>Ajout de la fonctionnalité de logout</t>
   </si>
 </sst>
 </file>
@@ -847,13 +856,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,36 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,27 +1546,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1565,14 +1574,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1599,14 +1608,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1634,14 +1643,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1669,15 +1678,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.4472222222222215</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>1.5131944444444438</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1733,10 +1742,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1767,10 +1776,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1801,10 +1810,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2668,31 +2677,59 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+    <row r="43" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G43" s="4">
+        <v>45015</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="J43" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G44" s="4">
+        <v>45015</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J44" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
@@ -44811,18 +44848,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45189,12 +45226,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45368,15 +45402,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45400,17 +45445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Ajout de la fonctionnalité de logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mise à jour des fichiers sur l'hébergeur</t>
+  </si>
+  <si>
+    <t>Mise à jour des fichiers sur l'hébergeur</t>
   </si>
 </sst>
 </file>
@@ -856,43 +862,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,6 +894,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1524,7 +1530,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,27 +1552,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1574,14 +1580,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1608,14 +1614,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1643,14 +1649,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1678,15 +1684,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.5131944444444438</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>1.5166666666666662</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1742,10 +1748,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1776,10 +1782,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1810,10 +1816,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2731,18 +2737,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
+    <row r="45" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G45" s="4">
+        <v>45016</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="J45" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
@@ -44848,18 +44868,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45226,9 +45246,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45402,26 +45425,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45445,9 +45457,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Mise à jour des fichiers sur l'hébergeur</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation</t>
   </si>
 </sst>
 </file>
@@ -862,13 +865,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,36 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1530,7 +1533,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,27 +1555,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1580,14 +1583,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1614,14 +1617,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1649,14 +1652,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1684,15 +1687,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.5166666666666662</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>1.5270833333333329</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1748,10 +1751,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1782,10 +1785,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1816,10 +1819,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2764,18 +2767,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
+    <row r="46" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G46" s="4">
+        <v>45016</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="J46" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
@@ -44868,18 +44885,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45246,12 +45263,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45425,15 +45439,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45457,17 +45482,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simao.HENRIQUES-SILV\Documents\GitHub\ProjetWebDMS\ProjetWebDMS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E05FF1-022B-4B87-993A-17027C8522AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal De Travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de Bord" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -311,14 +323,23 @@
   <si>
     <t>Mise à jour de la documentation</t>
   </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>Continuation / finition du panier</t>
+  </si>
+  <si>
+    <t>Continuation / finition du panier pour acheter des produits</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -777,47 +798,47 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,43 +886,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,7 +919,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,7 +1092,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1087,7 +1108,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1103,7 +1124,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1121,7 +1142,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1137,7 +1158,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1237,31 +1258,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="G4:N299" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="G4:N299"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="G4:N299" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="G4:N299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" name="Heure debut" dataDxfId="12"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="11"/>
-    <tableColumn id="4" name="Durée" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure debut" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="10">
       <calculatedColumnFormula>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Emplacement" dataDxfId="9"/>
-    <tableColumn id="7" name="Tâches" dataDxfId="8"/>
-    <tableColumn id="8" name="Résumé du travail" dataDxfId="7"/>
-    <tableColumn id="5" name="Fait par" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emplacement" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tâches" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Résumé du travail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fait par" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="C3:E63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="C3:E63" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" name="Vip" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Vip" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1529,11 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,27 +1576,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1583,14 +1604,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1617,14 +1638,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1652,14 +1673,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1687,15 +1708,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.5270833333333329</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>1.686805555555555</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1751,10 +1772,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1785,10 +1806,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1819,10 +1840,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2794,18 +2815,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
+    <row r="47" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G47" s="4">
+        <v>45020</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="J47" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+        <v>0.1597222222222221</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
@@ -44885,21 +44920,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -44910,7 +44945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -45263,9 +45298,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45439,26 +45477,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45482,9 +45509,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ProjetWebDMS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simao.HENRIQUES-SILV\Documents\GitHub\ProjetWebDMS\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E05FF1-022B-4B87-993A-17027C8522AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Journal De Travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de Bord" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -332,14 +331,23 @@
   <si>
     <t>Continuation / finition du panier pour acheter des produits</t>
   </si>
+  <si>
+    <t>Correction d'un problème du panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction d'un problème du panier </t>
+  </si>
+  <si>
+    <t>Simão Henriques da Silva ,Marcos Valente da Silva et Diego Pinto Tomaz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -798,47 +806,47 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -886,13 +894,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,37 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1100,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1108,7 +1116,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1124,7 +1132,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1142,7 +1150,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1158,7 +1166,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1258,31 +1266,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="G4:N299" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="G4:N299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="G4:N299" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="G4:N299"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure debut" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="10">
+    <tableColumn id="1" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" name="Heure debut" dataDxfId="12"/>
+    <tableColumn id="3" name="Heure fin" dataDxfId="11"/>
+    <tableColumn id="4" name="Durée" dataDxfId="10">
       <calculatedColumnFormula>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emplacement" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tâches" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Résumé du travail" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fait par" dataDxfId="6"/>
+    <tableColumn id="6" name="Emplacement" dataDxfId="9"/>
+    <tableColumn id="7" name="Tâches" dataDxfId="8"/>
+    <tableColumn id="8" name="Résumé du travail" dataDxfId="7"/>
+    <tableColumn id="5" name="Fait par" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="C3:E63" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="C3:E63" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="C3:E63"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Vip" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" name="Vip" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1550,11 +1558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="F44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N54" sqref="N53:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,27 +1584,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1604,14 +1612,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1638,14 +1646,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1673,14 +1681,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1708,15 +1716,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.686805555555555</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>1.7041666666666662</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1772,10 +1780,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1806,10 +1814,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1840,10 +1848,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2842,18 +2850,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
+    <row r="48" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G48" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="J48" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
@@ -44920,21 +44942,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -44945,7 +44967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -45298,12 +45320,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45477,15 +45496,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45509,17 +45539,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
+++ b/Documentation/JournalDeTravailEtBordDMS_SimaoHenriquesDaSilva.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Simão Henriques da Silva ,Marcos Valente da Silva et Diego Pinto Tomaz</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'hébergeur</t>
   </si>
 </sst>
 </file>
@@ -894,43 +897,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +929,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,7 +1565,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N53:N54"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,27 +1587,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1612,14 +1615,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1646,14 +1649,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1681,14 +1684,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1716,15 +1719,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>1.7041666666666662</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>1.7076388888888885</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44957</v>
       </c>
@@ -1780,10 +1783,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44959</v>
       </c>
@@ -1814,10 +1817,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44959</v>
       </c>
@@ -1848,10 +1851,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44959</v>
       </c>
@@ -2877,18 +2880,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
+    <row r="49" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G49" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="J49" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
@@ -44942,18 +44959,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45320,9 +45337,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45496,26 +45516,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45539,9 +45548,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>